--- a/data/outputs/能源化工元源数据文件/42(2)POWDER TECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件/42(2)POWDER TECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ263"/>
+  <dimension ref="A1:BR263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1364,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1576,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1787,6 +1796,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2006,6 +2016,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2221,6 +2232,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2424,6 +2436,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2639,6 +2652,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2850,6 +2864,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3057,6 +3072,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3276,6 +3292,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3487,6 +3504,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3702,6 +3720,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3909,6 +3928,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4120,6 +4140,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4331,6 +4352,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4534,6 +4556,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4749,6 +4772,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4960,6 +4984,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5175,6 +5200,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5382,6 +5408,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5593,6 +5620,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5812,6 +5840,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6023,6 +6052,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6230,6 +6260,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6441,6 +6472,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6656,6 +6688,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6875,6 +6908,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7094,6 +7128,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7313,6 +7348,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7520,6 +7556,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7739,6 +7776,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7942,6 +7980,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8161,6 +8200,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8247,7 +8287,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Sverak, Tomas/0000-0001-5117-624X; </t>
+          <t>Sverak, Tomas/0000-0001-5117-624X;</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr"/>
@@ -8372,6 +8412,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8575,6 +8616,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>3034812</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8786,6 +8832,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9005,6 +9052,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9208,6 +9256,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9415,6 +9464,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9622,6 +9672,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9841,6 +9892,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10052,6 +10104,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10271,6 +10324,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10482,6 +10536,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10701,6 +10756,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10912,6 +10968,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11123,6 +11180,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11338,6 +11396,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11541,6 +11600,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11756,6 +11816,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>3061268</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11975,6 +12040,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12186,6 +12252,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12401,6 +12468,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12608,6 +12676,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12819,6 +12888,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13038,6 +13108,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13257,6 +13328,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13476,6 +13548,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4512886</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13695,6 +13772,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13914,6 +13992,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14133,6 +14212,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14352,6 +14432,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14567,6 +14648,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14778,6 +14860,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14989,6 +15072,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15208,6 +15292,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15427,6 +15512,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15634,6 +15720,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15845,6 +15932,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>2982850</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16056,6 +16148,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16267,6 +16360,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16478,6 +16572,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16697,6 +16792,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16908,6 +17004,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16994,7 +17091,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Lance, Michel/0000-0002-1841-8136; </t>
+          <t>Lance, Michel/0000-0002-1841-8136;</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr"/>
@@ -17119,6 +17216,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17338,6 +17436,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17557,6 +17656,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17772,6 +17872,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17975,6 +18076,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18190,6 +18292,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>4675975</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18397,6 +18504,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18616,6 +18724,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18835,6 +18944,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19046,6 +19156,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19257,6 +19368,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19476,6 +19588,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19699,6 +19812,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19918,6 +20032,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20137,6 +20252,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20344,6 +20460,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20563,6 +20680,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20766,6 +20884,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20981,6 +21100,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>49725118</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21196,6 +21320,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21415,6 +21540,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21630,6 +21756,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21841,6 +21968,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22052,6 +22180,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22263,6 +22392,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22482,6 +22612,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>4157527</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22693,6 +22828,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22904,6 +23040,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23115,6 +23252,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23326,6 +23464,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23545,6 +23684,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23748,6 +23888,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23959,6 +24100,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24178,6 +24320,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24389,6 +24532,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24592,6 +24736,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24795,6 +24940,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24998,6 +25144,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25209,6 +25356,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25412,6 +25560,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25631,6 +25780,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25842,6 +25992,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26061,6 +26212,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26268,6 +26420,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26487,6 +26640,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>4512733</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26698,6 +26856,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26780,7 +26939,7 @@
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>Briesen, Heiko/0000-0001-7725-5907; </t>
+          <t>Briesen, Heiko/0000-0001-7725-5907;</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr">
@@ -26913,6 +27072,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27128,6 +27288,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27211,7 +27372,7 @@
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr">
         <is>
-          <t> [IVIC-857];  [FONACIT-PEII-2011001085]</t>
+          <t>[IVIC-857];  [FONACIT-PEII-2011001085]</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
@@ -27343,6 +27504,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27558,6 +27720,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27765,6 +27928,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27976,6 +28140,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28199,6 +28364,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28422,6 +28588,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28645,6 +28812,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28860,6 +29028,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29083,6 +29252,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29302,6 +29472,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29521,6 +29692,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29736,6 +29908,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29951,6 +30124,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30174,6 +30348,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30397,6 +30572,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30612,6 +30788,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30823,6 +31000,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31030,6 +31208,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31245,6 +31424,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31452,6 +31632,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31667,6 +31848,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31882,6 +32064,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32093,6 +32276,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32300,6 +32484,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32515,6 +32700,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32722,6 +32908,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32929,6 +33116,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33148,6 +33336,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33371,6 +33560,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33578,6 +33768,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33793,6 +33984,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34000,6 +34192,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34223,6 +34416,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34438,6 +34632,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34653,6 +34848,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34852,6 +35048,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35075,6 +35272,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35298,6 +35496,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35517,6 +35716,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35740,6 +35940,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35963,6 +36164,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36190,6 +36392,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36409,6 +36612,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>2291660</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36628,6 +36836,11 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr">
+        <is>
+          <t>2588429</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36839,6 +37052,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37054,6 +37268,11 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr">
+        <is>
+          <t>35574397</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37273,6 +37492,11 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr">
+        <is>
+          <t>2485314</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37496,6 +37720,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37723,6 +37948,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37946,6 +38172,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38177,6 +38404,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38396,6 +38624,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38615,6 +38844,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38842,6 +39072,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39069,6 +39300,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39288,6 +39520,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39503,6 +39736,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39722,6 +39956,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39953,6 +40188,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40168,6 +40404,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40379,6 +40616,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40590,6 +40828,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40809,6 +41048,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40895,7 +41135,7 @@
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>Heris, Saeed Zeinali/0000-0001-6203-0385; </t>
+          <t>Heris, Saeed Zeinali/0000-0001-6203-0385;</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr">
@@ -41028,6 +41268,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41235,6 +41476,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41450,6 +41692,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41661,6 +41904,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41880,6 +42124,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42087,6 +42332,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42302,6 +42548,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42513,6 +42760,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42732,6 +42980,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42951,6 +43200,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43166,6 +43416,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43377,6 +43628,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43463,7 +43715,7 @@
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>Albanez, Roberta/0000-0002-2600-2114; </t>
+          <t>Albanez, Roberta/0000-0002-2600-2114;</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr">
@@ -43596,6 +43848,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43803,6 +44056,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44022,6 +44276,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44233,6 +44488,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44452,6 +44708,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44663,6 +44920,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44874,6 +45132,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45093,6 +45352,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45296,6 +45556,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45503,6 +45764,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -45714,6 +45976,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45933,6 +46196,11 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr">
+        <is>
+          <t>2782053</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46144,6 +46412,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46355,6 +46624,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46566,6 +46836,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -46785,6 +47056,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -47004,6 +47276,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47219,6 +47492,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -47430,6 +47704,7 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -47649,6 +47924,7 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -47860,6 +48136,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -48059,6 +48336,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -48274,6 +48552,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -48485,6 +48764,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -48700,6 +48980,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -48919,6 +49200,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -49138,6 +49420,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -49349,6 +49632,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -49556,6 +49840,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -49771,6 +50056,11 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr">
+        <is>
+          <t>3904060</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -49982,6 +50272,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -50193,6 +50484,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -50404,6 +50696,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50615,6 +50908,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -50826,6 +51120,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -51017,6 +51312,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -51240,6 +51536,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -51459,6 +51756,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -51678,6 +51976,11 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr">
+        <is>
+          <t>48120358</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -51885,6 +52188,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -52104,6 +52408,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -52311,6 +52616,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -52518,6 +52824,7 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -52745,6 +53052,11 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr">
+        <is>
+          <t>6684895</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -52968,6 +53280,7 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -53179,6 +53492,7 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -53386,6 +53700,7 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -53601,6 +53916,7 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -53687,7 +54003,7 @@
       </c>
       <c r="AA249" t="inlineStr">
         <is>
-          <t>Wang, Aiqin/0000-0002-9963-7460; </t>
+          <t>Wang, Aiqin/0000-0002-9963-7460;</t>
         </is>
       </c>
       <c r="AB249" t="inlineStr">
@@ -53820,6 +54136,7 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -54039,6 +54356,7 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -54258,6 +54576,7 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -54344,7 +54663,7 @@
       </c>
       <c r="AA252" t="inlineStr">
         <is>
-          <t>Saxen, Henrik/0000-0002-5671-8367; </t>
+          <t>Saxen, Henrik/0000-0002-5671-8367;</t>
         </is>
       </c>
       <c r="AB252" t="inlineStr">
@@ -54477,6 +54796,7 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -54692,6 +55012,7 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -54895,6 +55216,7 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -55114,6 +55436,7 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -55329,6 +55652,7 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -55548,6 +55872,7 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -55763,6 +56088,7 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -55974,6 +56300,7 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -56193,6 +56520,7 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -56412,6 +56740,7 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -56499,7 +56828,7 @@
       </c>
       <c r="AB262" t="inlineStr">
         <is>
-          <t> [ADD-12-01-04-05]</t>
+          <t>[ADD-12-01-04-05]</t>
         </is>
       </c>
       <c r="AC262" t="inlineStr">
@@ -56627,6 +56956,7 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -56838,6 +57168,7 @@
         </is>
       </c>
       <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
